--- a/biology/Médecine/1404_en_santé_et_médecine/1404_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1404_en_santé_et_médecine/1404_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1404_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1404_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1404 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1404_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1404_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>24 mars : Ives Gilemme, Marie de Blansy, Perrin Hemery et Guillaume Floret meurent sur le bûcher pour avoir invoqué le diable afin d'en obtenir la guérison du roi Charles VI[1].
-Fondation de l'université de Turin, où la médecine est enseignée dès les premières années[2].
-L'université de Palencia en Castille, fondée en 1208, première d'Espagne et où la médecine a été enseignée dès l'origine, est transférée à Salamanque[3].
-Le synode de Langres, réuni sous le cardinal évêque Louis de Bar, accorde quarante jours d'indulgence à ceux qui pratiquent les césariennes lorsque c'est dans l'intention de sauver l'enfant afin qu'il puisse être baptisé[4].
-L'hôpital de Notre-Dame des Sept-Fontaines de Steenvoorde, dans le comté de Flandre, est mentionné pour la première fois, dans un acte de donation de Mathieu de Licques, seigneur du lieu[5].
-« Une taxe pharmaceutique, la plus ancienne connue, est établie pour la ville de Bâle[6] ».
-Une officine d'apothicaire est attestée pour la première fois à Nuremberg, en Allemagne[7].
-Ladislas Ier, roi de Naples, octroie licence à Cusina de Pastino, fille d'un forgeron de Dipignano, de pratiquer la chirurgie à Cosenza, en Calabre[8].
-1402-1404 : peste en Islande, une des trois plus graves épidémies que ce pays ait eu à subir, avec la « Seconde Peste » de 1494-1495 et l'épidémie de variole de 1707-1709[9]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>24 mars : Ives Gilemme, Marie de Blansy, Perrin Hemery et Guillaume Floret meurent sur le bûcher pour avoir invoqué le diable afin d'en obtenir la guérison du roi Charles VI.
+Fondation de l'université de Turin, où la médecine est enseignée dès les premières années.
+L'université de Palencia en Castille, fondée en 1208, première d'Espagne et où la médecine a été enseignée dès l'origine, est transférée à Salamanque.
+Le synode de Langres, réuni sous le cardinal évêque Louis de Bar, accorde quarante jours d'indulgence à ceux qui pratiquent les césariennes lorsque c'est dans l'intention de sauver l'enfant afin qu'il puisse être baptisé.
+L'hôpital de Notre-Dame des Sept-Fontaines de Steenvoorde, dans le comté de Flandre, est mentionné pour la première fois, dans un acte de donation de Mathieu de Licques, seigneur du lieu.
+« Une taxe pharmaceutique, la plus ancienne connue, est établie pour la ville de Bâle ».
+Une officine d'apothicaire est attestée pour la première fois à Nuremberg, en Allemagne.
+Ladislas Ier, roi de Naples, octroie licence à Cusina de Pastino, fille d'un forgeron de Dipignano, de pratiquer la chirurgie à Cosenza, en Calabre.
+1402-1404 : peste en Islande, une des trois plus graves épidémies que ce pays ait eu à subir, avec la « Seconde Peste » de 1494-1495 et l'épidémie de variole de 1707-1709</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1404_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1404_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,11 +563,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>10 juin : Galeran de Pendref (né à une date inconnue), clerc du diocèse de Quimper en Bretagne, reçu docteur en médecine à Paris, professeur à la faculté de théologie[1].
-Pierre (né à une date inconnue), fils de Maynus de Mayneriis († apr. 1364), médecin des Visconti, peut-être professeur à Milan[10].
-Thierry Distel de Unna (né à une date inconnue), clerc du diocèse de Cologne, licencié en médecine à Paris, recteur de l'université de Cologne[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10 juin : Galeran de Pendref (né à une date inconnue), clerc du diocèse de Quimper en Bretagne, reçu docteur en médecine à Paris, professeur à la faculté de théologie.
+Pierre (né à une date inconnue), fils de Maynus de Mayneriis († apr. 1364), médecin des Visconti, peut-être professeur à Milan.
+Thierry Distel de Unna (né à une date inconnue), clerc du diocèse de Cologne, licencié en médecine à Paris, recteur de l'université de Cologne.</t>
         </is>
       </c>
     </row>
